--- a/data/532/HKCSD/old/Nominal Gross Domestic Fixed Capital Formation.xlsx
+++ b/data/532/HKCSD/old/Nominal Gross Domestic Fixed Capital Formation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GDFCF\Publish\Website series\2021Q2\Table E203\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Pzone\7_Data dissemination\8_Website series\Team2B\2021Q3\Table E203\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,10 +17,8 @@
     <sheet name="E203_2" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">E203_1!$C$1:$C$279</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">E203_1!$C$1:$C$280</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">E203_2!$A$5:$W$228</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">E203_1!$A$1:$W$270</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">E203_2!$A$1:$W$271</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">E203_1!$1:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">E203_2!$1:$5</definedName>
   </definedNames>
@@ -29,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="75">
   <si>
     <t>Enquiry e-mail : gdp-e@censtatd.gov.hk)</t>
   </si>
@@ -313,7 +311,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Last revision date: 13 Aug, 2021</t>
+    <t>Last revision date: 12 Nov, 2021</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1012,27 +1010,38 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
       </left>
       <right style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14981536301767021"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14981536301767021"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color theme="0" tint="-0.1498458815271462"/>
+        <color theme="0" tint="-0.14981536301767021"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,7 +1071,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1280,31 +1289,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1349,7 +1337,55 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="46" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="32" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="33" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="40" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,9 +1395,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="12" fillId="0" borderId="42" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1389,27 +1422,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="18" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="44" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="45" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1785,10 +1797,10 @@
   <sheetPr codeName="工作表2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W270"/>
+  <dimension ref="A1:W271"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C230" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C235" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C6" sqref="C6:V242"/>
       <selection pane="topRight" activeCell="C6" sqref="C6:V242"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6:V242"/>
@@ -1836,80 +1848,80 @@
         <v>38</v>
       </c>
       <c r="B3" s="32"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="88" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="94" t="s">
+      <c r="P3" s="82"/>
+      <c r="Q3" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="94"/>
-      <c r="S3" s="94"/>
-      <c r="T3" s="94"/>
-      <c r="U3" s="94"/>
-      <c r="V3" s="94"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
     </row>
     <row r="4" spans="1:23" s="2" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="33"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="95" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="92" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="97" t="s">
+      <c r="P4" s="86"/>
+      <c r="Q4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="98"/>
-      <c r="S4" s="99" t="s">
+      <c r="R4" s="91"/>
+      <c r="S4" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="98"/>
-      <c r="U4" s="99" t="s">
+      <c r="T4" s="91"/>
+      <c r="U4" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="98"/>
+      <c r="V4" s="91"/>
     </row>
     <row r="5" spans="1:23" s="2" customFormat="1" ht="28.5" customHeight="1">
       <c r="A5" s="31" t="s">
@@ -5610,7 +5622,7 @@
       </c>
     </row>
     <row r="61" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="82">
+      <c r="A61" s="80">
         <v>1973</v>
       </c>
       <c r="B61" s="55">
@@ -5678,7 +5690,7 @@
       </c>
     </row>
     <row r="62" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="82"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="55">
         <v>2</v>
       </c>
@@ -5744,7 +5756,7 @@
       </c>
     </row>
     <row r="63" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="82"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="55">
         <v>3</v>
       </c>
@@ -5810,7 +5822,7 @@
       </c>
     </row>
     <row r="64" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="82"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="55">
         <v>4</v>
       </c>
@@ -5876,7 +5888,7 @@
       </c>
     </row>
     <row r="65" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="82">
+      <c r="A65" s="80">
         <v>1974</v>
       </c>
       <c r="B65" s="55">
@@ -5944,7 +5956,7 @@
       </c>
     </row>
     <row r="66" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="82"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="55">
         <v>2</v>
       </c>
@@ -6010,7 +6022,7 @@
       </c>
     </row>
     <row r="67" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="82"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="55">
         <v>3</v>
       </c>
@@ -6076,7 +6088,7 @@
       </c>
     </row>
     <row r="68" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="82"/>
+      <c r="A68" s="80"/>
       <c r="B68" s="55">
         <v>4</v>
       </c>
@@ -6142,7 +6154,7 @@
       </c>
     </row>
     <row r="69" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="82">
+      <c r="A69" s="80">
         <v>1975</v>
       </c>
       <c r="B69" s="55">
@@ -6210,7 +6222,7 @@
       </c>
     </row>
     <row r="70" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="82"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="55">
         <v>2</v>
       </c>
@@ -6276,7 +6288,7 @@
       </c>
     </row>
     <row r="71" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="82"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="55">
         <v>3</v>
       </c>
@@ -6342,7 +6354,7 @@
       </c>
     </row>
     <row r="72" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="82"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="55">
         <v>4</v>
       </c>
@@ -6408,7 +6420,7 @@
       </c>
     </row>
     <row r="73" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="82">
+      <c r="A73" s="80">
         <v>1976</v>
       </c>
       <c r="B73" s="55">
@@ -6476,7 +6488,7 @@
       </c>
     </row>
     <row r="74" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="82"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="55">
         <v>2</v>
       </c>
@@ -6542,7 +6554,7 @@
       </c>
     </row>
     <row r="75" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="82"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="55">
         <v>3</v>
       </c>
@@ -6608,7 +6620,7 @@
       </c>
     </row>
     <row r="76" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="82"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="55">
         <v>4</v>
       </c>
@@ -6674,7 +6686,7 @@
       </c>
     </row>
     <row r="77" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A77" s="82">
+      <c r="A77" s="80">
         <v>1977</v>
       </c>
       <c r="B77" s="55">
@@ -6742,7 +6754,7 @@
       </c>
     </row>
     <row r="78" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="82"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="55">
         <v>2</v>
       </c>
@@ -6808,7 +6820,7 @@
       </c>
     </row>
     <row r="79" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="82"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="55">
         <v>3</v>
       </c>
@@ -6874,7 +6886,7 @@
       </c>
     </row>
     <row r="80" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="82"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="55">
         <v>4</v>
       </c>
@@ -6940,7 +6952,7 @@
       </c>
     </row>
     <row r="81" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="82">
+      <c r="A81" s="80">
         <v>1978</v>
       </c>
       <c r="B81" s="55">
@@ -7008,7 +7020,7 @@
       </c>
     </row>
     <row r="82" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="82"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="55">
         <v>2</v>
       </c>
@@ -7074,7 +7086,7 @@
       </c>
     </row>
     <row r="83" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A83" s="82"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="55">
         <v>3</v>
       </c>
@@ -7140,7 +7152,7 @@
       </c>
     </row>
     <row r="84" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A84" s="82"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="55">
         <v>4</v>
       </c>
@@ -7206,7 +7218,7 @@
       </c>
     </row>
     <row r="85" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A85" s="82">
+      <c r="A85" s="80">
         <v>1979</v>
       </c>
       <c r="B85" s="55">
@@ -7274,7 +7286,7 @@
       </c>
     </row>
     <row r="86" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A86" s="82"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="55">
         <v>2</v>
       </c>
@@ -7340,7 +7352,7 @@
       </c>
     </row>
     <row r="87" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A87" s="82"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="55">
         <v>3</v>
       </c>
@@ -7406,7 +7418,7 @@
       </c>
     </row>
     <row r="88" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A88" s="82"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="55">
         <v>4</v>
       </c>
@@ -7472,7 +7484,7 @@
       </c>
     </row>
     <row r="89" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A89" s="82">
+      <c r="A89" s="80">
         <v>1980</v>
       </c>
       <c r="B89" s="55">
@@ -7540,7 +7552,7 @@
       </c>
     </row>
     <row r="90" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A90" s="82"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="55">
         <v>2</v>
       </c>
@@ -7606,7 +7618,7 @@
       </c>
     </row>
     <row r="91" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A91" s="82"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="55">
         <v>3</v>
       </c>
@@ -7672,7 +7684,7 @@
       </c>
     </row>
     <row r="92" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A92" s="82"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="55">
         <v>4</v>
       </c>
@@ -7738,7 +7750,7 @@
       </c>
     </row>
     <row r="93" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A93" s="82">
+      <c r="A93" s="80">
         <v>1981</v>
       </c>
       <c r="B93" s="55">
@@ -7806,7 +7818,7 @@
       </c>
     </row>
     <row r="94" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A94" s="82"/>
+      <c r="A94" s="80"/>
       <c r="B94" s="55">
         <v>2</v>
       </c>
@@ -7872,7 +7884,7 @@
       </c>
     </row>
     <row r="95" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A95" s="82"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="55">
         <v>3</v>
       </c>
@@ -7938,7 +7950,7 @@
       </c>
     </row>
     <row r="96" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A96" s="82"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="55">
         <v>4</v>
       </c>
@@ -8004,7 +8016,7 @@
       </c>
     </row>
     <row r="97" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A97" s="82">
+      <c r="A97" s="80">
         <v>1982</v>
       </c>
       <c r="B97" s="55">
@@ -8072,7 +8084,7 @@
       </c>
     </row>
     <row r="98" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A98" s="82"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="55">
         <v>2</v>
       </c>
@@ -8138,7 +8150,7 @@
       </c>
     </row>
     <row r="99" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A99" s="82"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="55">
         <v>3</v>
       </c>
@@ -8204,7 +8216,7 @@
       </c>
     </row>
     <row r="100" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A100" s="82"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="55">
         <v>4</v>
       </c>
@@ -8270,7 +8282,7 @@
       </c>
     </row>
     <row r="101" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A101" s="82">
+      <c r="A101" s="80">
         <v>1983</v>
       </c>
       <c r="B101" s="55">
@@ -8338,7 +8350,7 @@
       </c>
     </row>
     <row r="102" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A102" s="82"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="55">
         <v>2</v>
       </c>
@@ -8404,7 +8416,7 @@
       </c>
     </row>
     <row r="103" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A103" s="82"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="55">
         <v>3</v>
       </c>
@@ -8470,7 +8482,7 @@
       </c>
     </row>
     <row r="104" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A104" s="82"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="55">
         <v>4</v>
       </c>
@@ -8536,7 +8548,7 @@
       </c>
     </row>
     <row r="105" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A105" s="82">
+      <c r="A105" s="80">
         <v>1984</v>
       </c>
       <c r="B105" s="55">
@@ -8604,7 +8616,7 @@
       </c>
     </row>
     <row r="106" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A106" s="82"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="55">
         <v>2</v>
       </c>
@@ -8670,7 +8682,7 @@
       </c>
     </row>
     <row r="107" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A107" s="82"/>
+      <c r="A107" s="80"/>
       <c r="B107" s="55">
         <v>3</v>
       </c>
@@ -8736,7 +8748,7 @@
       </c>
     </row>
     <row r="108" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A108" s="82"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="55">
         <v>4</v>
       </c>
@@ -8802,7 +8814,7 @@
       </c>
     </row>
     <row r="109" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A109" s="82">
+      <c r="A109" s="80">
         <v>1985</v>
       </c>
       <c r="B109" s="55">
@@ -8870,7 +8882,7 @@
       </c>
     </row>
     <row r="110" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A110" s="82"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="55">
         <v>2</v>
       </c>
@@ -8936,7 +8948,7 @@
       </c>
     </row>
     <row r="111" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A111" s="82"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="55">
         <v>3</v>
       </c>
@@ -9002,7 +9014,7 @@
       </c>
     </row>
     <row r="112" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A112" s="82"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="55">
         <v>4</v>
       </c>
@@ -9068,7 +9080,7 @@
       </c>
     </row>
     <row r="113" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A113" s="82">
+      <c r="A113" s="80">
         <v>1986</v>
       </c>
       <c r="B113" s="55">
@@ -9136,7 +9148,7 @@
       </c>
     </row>
     <row r="114" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A114" s="82"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="55">
         <v>2</v>
       </c>
@@ -9202,7 +9214,7 @@
       </c>
     </row>
     <row r="115" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A115" s="82"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="55">
         <v>3</v>
       </c>
@@ -9268,7 +9280,7 @@
       </c>
     </row>
     <row r="116" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A116" s="82"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="55">
         <v>4</v>
       </c>
@@ -9334,7 +9346,7 @@
       </c>
     </row>
     <row r="117" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A117" s="82">
+      <c r="A117" s="80">
         <v>1987</v>
       </c>
       <c r="B117" s="55">
@@ -9402,7 +9414,7 @@
       </c>
     </row>
     <row r="118" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A118" s="82"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="55">
         <v>2</v>
       </c>
@@ -9468,7 +9480,7 @@
       </c>
     </row>
     <row r="119" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A119" s="82"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="55">
         <v>3</v>
       </c>
@@ -9534,7 +9546,7 @@
       </c>
     </row>
     <row r="120" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A120" s="82"/>
+      <c r="A120" s="80"/>
       <c r="B120" s="55">
         <v>4</v>
       </c>
@@ -9600,7 +9612,7 @@
       </c>
     </row>
     <row r="121" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A121" s="82">
+      <c r="A121" s="80">
         <v>1988</v>
       </c>
       <c r="B121" s="55">
@@ -9668,7 +9680,7 @@
       </c>
     </row>
     <row r="122" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A122" s="82"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="55">
         <v>2</v>
       </c>
@@ -9734,7 +9746,7 @@
       </c>
     </row>
     <row r="123" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A123" s="82"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="55">
         <v>3</v>
       </c>
@@ -9800,7 +9812,7 @@
       </c>
     </row>
     <row r="124" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A124" s="82"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="55">
         <v>4</v>
       </c>
@@ -9866,7 +9878,7 @@
       </c>
     </row>
     <row r="125" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A125" s="82">
+      <c r="A125" s="80">
         <v>1989</v>
       </c>
       <c r="B125" s="55">
@@ -9934,7 +9946,7 @@
       </c>
     </row>
     <row r="126" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A126" s="82"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="55">
         <v>2</v>
       </c>
@@ -10000,7 +10012,7 @@
       </c>
     </row>
     <row r="127" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A127" s="82"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="55">
         <v>3</v>
       </c>
@@ -10066,7 +10078,7 @@
       </c>
     </row>
     <row r="128" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A128" s="82"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="55">
         <v>4</v>
       </c>
@@ -10132,7 +10144,7 @@
       </c>
     </row>
     <row r="129" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A129" s="82">
+      <c r="A129" s="80">
         <v>1990</v>
       </c>
       <c r="B129" s="55">
@@ -10200,7 +10212,7 @@
       </c>
     </row>
     <row r="130" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A130" s="82"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="55">
         <v>2</v>
       </c>
@@ -10266,7 +10278,7 @@
       </c>
     </row>
     <row r="131" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A131" s="82"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="55">
         <v>3</v>
       </c>
@@ -10332,7 +10344,7 @@
       </c>
     </row>
     <row r="132" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A132" s="82"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="55">
         <v>4</v>
       </c>
@@ -10398,7 +10410,7 @@
       </c>
     </row>
     <row r="133" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A133" s="82">
+      <c r="A133" s="80">
         <v>1991</v>
       </c>
       <c r="B133" s="55">
@@ -10466,7 +10478,7 @@
       </c>
     </row>
     <row r="134" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A134" s="82"/>
+      <c r="A134" s="80"/>
       <c r="B134" s="55">
         <v>2</v>
       </c>
@@ -10532,7 +10544,7 @@
       </c>
     </row>
     <row r="135" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A135" s="82"/>
+      <c r="A135" s="80"/>
       <c r="B135" s="55">
         <v>3</v>
       </c>
@@ -10598,7 +10610,7 @@
       </c>
     </row>
     <row r="136" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A136" s="82"/>
+      <c r="A136" s="80"/>
       <c r="B136" s="55">
         <v>4</v>
       </c>
@@ -10664,7 +10676,7 @@
       </c>
     </row>
     <row r="137" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A137" s="82">
+      <c r="A137" s="80">
         <v>1992</v>
       </c>
       <c r="B137" s="55">
@@ -10732,7 +10744,7 @@
       </c>
     </row>
     <row r="138" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A138" s="82"/>
+      <c r="A138" s="80"/>
       <c r="B138" s="55">
         <v>2</v>
       </c>
@@ -10798,7 +10810,7 @@
       </c>
     </row>
     <row r="139" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A139" s="82"/>
+      <c r="A139" s="80"/>
       <c r="B139" s="55">
         <v>3</v>
       </c>
@@ -10864,7 +10876,7 @@
       </c>
     </row>
     <row r="140" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A140" s="82"/>
+      <c r="A140" s="80"/>
       <c r="B140" s="55">
         <v>4</v>
       </c>
@@ -10930,7 +10942,7 @@
       </c>
     </row>
     <row r="141" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A141" s="82">
+      <c r="A141" s="80">
         <v>1993</v>
       </c>
       <c r="B141" s="55">
@@ -10998,7 +11010,7 @@
       </c>
     </row>
     <row r="142" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A142" s="82"/>
+      <c r="A142" s="80"/>
       <c r="B142" s="55">
         <v>2</v>
       </c>
@@ -11064,7 +11076,7 @@
       </c>
     </row>
     <row r="143" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A143" s="82"/>
+      <c r="A143" s="80"/>
       <c r="B143" s="55">
         <v>3</v>
       </c>
@@ -11130,7 +11142,7 @@
       </c>
     </row>
     <row r="144" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A144" s="82"/>
+      <c r="A144" s="80"/>
       <c r="B144" s="55">
         <v>4</v>
       </c>
@@ -11196,7 +11208,7 @@
       </c>
     </row>
     <row r="145" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A145" s="82">
+      <c r="A145" s="80">
         <v>1994</v>
       </c>
       <c r="B145" s="55">
@@ -11264,7 +11276,7 @@
       </c>
     </row>
     <row r="146" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A146" s="82"/>
+      <c r="A146" s="80"/>
       <c r="B146" s="55">
         <v>2</v>
       </c>
@@ -11330,7 +11342,7 @@
       </c>
     </row>
     <row r="147" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A147" s="82"/>
+      <c r="A147" s="80"/>
       <c r="B147" s="55">
         <v>3</v>
       </c>
@@ -11396,7 +11408,7 @@
       </c>
     </row>
     <row r="148" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A148" s="82"/>
+      <c r="A148" s="80"/>
       <c r="B148" s="55">
         <v>4</v>
       </c>
@@ -11462,7 +11474,7 @@
       </c>
     </row>
     <row r="149" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A149" s="82">
+      <c r="A149" s="80">
         <v>1995</v>
       </c>
       <c r="B149" s="55">
@@ -11530,7 +11542,7 @@
       </c>
     </row>
     <row r="150" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A150" s="82"/>
+      <c r="A150" s="80"/>
       <c r="B150" s="55">
         <v>2</v>
       </c>
@@ -11596,7 +11608,7 @@
       </c>
     </row>
     <row r="151" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A151" s="82"/>
+      <c r="A151" s="80"/>
       <c r="B151" s="55">
         <v>3</v>
       </c>
@@ -11662,7 +11674,7 @@
       </c>
     </row>
     <row r="152" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A152" s="82"/>
+      <c r="A152" s="80"/>
       <c r="B152" s="55">
         <v>4</v>
       </c>
@@ -11728,7 +11740,7 @@
       </c>
     </row>
     <row r="153" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A153" s="82">
+      <c r="A153" s="80">
         <v>1996</v>
       </c>
       <c r="B153" s="55">
@@ -11796,7 +11808,7 @@
       </c>
     </row>
     <row r="154" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A154" s="82"/>
+      <c r="A154" s="80"/>
       <c r="B154" s="55">
         <v>2</v>
       </c>
@@ -11862,7 +11874,7 @@
       </c>
     </row>
     <row r="155" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A155" s="82"/>
+      <c r="A155" s="80"/>
       <c r="B155" s="55">
         <v>3</v>
       </c>
@@ -11928,7 +11940,7 @@
       </c>
     </row>
     <row r="156" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A156" s="82"/>
+      <c r="A156" s="80"/>
       <c r="B156" s="55">
         <v>4</v>
       </c>
@@ -11994,7 +12006,7 @@
       </c>
     </row>
     <row r="157" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A157" s="82">
+      <c r="A157" s="80">
         <v>1997</v>
       </c>
       <c r="B157" s="55">
@@ -12062,7 +12074,7 @@
       </c>
     </row>
     <row r="158" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A158" s="82"/>
+      <c r="A158" s="80"/>
       <c r="B158" s="55">
         <v>2</v>
       </c>
@@ -12128,7 +12140,7 @@
       </c>
     </row>
     <row r="159" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A159" s="82"/>
+      <c r="A159" s="80"/>
       <c r="B159" s="55">
         <v>3</v>
       </c>
@@ -12194,7 +12206,7 @@
       </c>
     </row>
     <row r="160" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A160" s="82"/>
+      <c r="A160" s="80"/>
       <c r="B160" s="55">
         <v>4</v>
       </c>
@@ -12260,7 +12272,7 @@
       </c>
     </row>
     <row r="161" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A161" s="82">
+      <c r="A161" s="80">
         <v>1998</v>
       </c>
       <c r="B161" s="55">
@@ -12328,7 +12340,7 @@
       </c>
     </row>
     <row r="162" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A162" s="82"/>
+      <c r="A162" s="80"/>
       <c r="B162" s="55">
         <v>2</v>
       </c>
@@ -12394,7 +12406,7 @@
       </c>
     </row>
     <row r="163" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A163" s="82"/>
+      <c r="A163" s="80"/>
       <c r="B163" s="55">
         <v>3</v>
       </c>
@@ -12460,7 +12472,7 @@
       </c>
     </row>
     <row r="164" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A164" s="82"/>
+      <c r="A164" s="80"/>
       <c r="B164" s="55">
         <v>4</v>
       </c>
@@ -12526,7 +12538,7 @@
       </c>
     </row>
     <row r="165" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A165" s="82">
+      <c r="A165" s="80">
         <v>1999</v>
       </c>
       <c r="B165" s="55">
@@ -12594,7 +12606,7 @@
       </c>
     </row>
     <row r="166" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A166" s="82"/>
+      <c r="A166" s="80"/>
       <c r="B166" s="55">
         <v>2</v>
       </c>
@@ -12660,7 +12672,7 @@
       </c>
     </row>
     <row r="167" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A167" s="82"/>
+      <c r="A167" s="80"/>
       <c r="B167" s="55">
         <v>3</v>
       </c>
@@ -12726,7 +12738,7 @@
       </c>
     </row>
     <row r="168" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A168" s="82"/>
+      <c r="A168" s="80"/>
       <c r="B168" s="55">
         <v>4</v>
       </c>
@@ -12792,7 +12804,7 @@
       </c>
     </row>
     <row r="169" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A169" s="82">
+      <c r="A169" s="80">
         <v>2000</v>
       </c>
       <c r="B169" s="55">
@@ -12860,7 +12872,7 @@
       </c>
     </row>
     <row r="170" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A170" s="82"/>
+      <c r="A170" s="80"/>
       <c r="B170" s="55">
         <v>2</v>
       </c>
@@ -12926,7 +12938,7 @@
       </c>
     </row>
     <row r="171" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A171" s="82"/>
+      <c r="A171" s="80"/>
       <c r="B171" s="55">
         <v>3</v>
       </c>
@@ -12992,7 +13004,7 @@
       </c>
     </row>
     <row r="172" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A172" s="82"/>
+      <c r="A172" s="80"/>
       <c r="B172" s="55">
         <v>4</v>
       </c>
@@ -13058,7 +13070,7 @@
       </c>
     </row>
     <row r="173" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A173" s="82">
+      <c r="A173" s="80">
         <v>2001</v>
       </c>
       <c r="B173" s="55">
@@ -13126,7 +13138,7 @@
       </c>
     </row>
     <row r="174" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A174" s="82"/>
+      <c r="A174" s="80"/>
       <c r="B174" s="55">
         <v>2</v>
       </c>
@@ -13192,7 +13204,7 @@
       </c>
     </row>
     <row r="175" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A175" s="82"/>
+      <c r="A175" s="80"/>
       <c r="B175" s="55">
         <v>3</v>
       </c>
@@ -13258,7 +13270,7 @@
       </c>
     </row>
     <row r="176" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A176" s="82"/>
+      <c r="A176" s="80"/>
       <c r="B176" s="55">
         <v>4</v>
       </c>
@@ -13324,7 +13336,7 @@
       </c>
     </row>
     <row r="177" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A177" s="82">
+      <c r="A177" s="80">
         <v>2002</v>
       </c>
       <c r="B177" s="55">
@@ -13392,7 +13404,7 @@
       </c>
     </row>
     <row r="178" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A178" s="82"/>
+      <c r="A178" s="80"/>
       <c r="B178" s="55">
         <v>2</v>
       </c>
@@ -13458,7 +13470,7 @@
       </c>
     </row>
     <row r="179" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A179" s="82"/>
+      <c r="A179" s="80"/>
       <c r="B179" s="55">
         <v>3</v>
       </c>
@@ -13524,7 +13536,7 @@
       </c>
     </row>
     <row r="180" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A180" s="82"/>
+      <c r="A180" s="80"/>
       <c r="B180" s="55">
         <v>4</v>
       </c>
@@ -13590,7 +13602,7 @@
       </c>
     </row>
     <row r="181" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A181" s="82">
+      <c r="A181" s="80">
         <v>2003</v>
       </c>
       <c r="B181" s="55">
@@ -13658,7 +13670,7 @@
       </c>
     </row>
     <row r="182" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A182" s="82"/>
+      <c r="A182" s="80"/>
       <c r="B182" s="55">
         <v>2</v>
       </c>
@@ -13724,7 +13736,7 @@
       </c>
     </row>
     <row r="183" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A183" s="82"/>
+      <c r="A183" s="80"/>
       <c r="B183" s="55">
         <v>3</v>
       </c>
@@ -13790,7 +13802,7 @@
       </c>
     </row>
     <row r="184" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A184" s="82"/>
+      <c r="A184" s="80"/>
       <c r="B184" s="55">
         <v>4</v>
       </c>
@@ -13856,7 +13868,7 @@
       </c>
     </row>
     <row r="185" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A185" s="82">
+      <c r="A185" s="80">
         <v>2004</v>
       </c>
       <c r="B185" s="55">
@@ -13924,7 +13936,7 @@
       </c>
     </row>
     <row r="186" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A186" s="82"/>
+      <c r="A186" s="80"/>
       <c r="B186" s="55">
         <v>2</v>
       </c>
@@ -13990,7 +14002,7 @@
       </c>
     </row>
     <row r="187" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A187" s="82"/>
+      <c r="A187" s="80"/>
       <c r="B187" s="55">
         <v>3</v>
       </c>
@@ -14056,7 +14068,7 @@
       </c>
     </row>
     <row r="188" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A188" s="82"/>
+      <c r="A188" s="80"/>
       <c r="B188" s="55">
         <v>4</v>
       </c>
@@ -14122,7 +14134,7 @@
       </c>
     </row>
     <row r="189" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A189" s="82">
+      <c r="A189" s="80">
         <v>2005</v>
       </c>
       <c r="B189" s="55">
@@ -14190,7 +14202,7 @@
       </c>
     </row>
     <row r="190" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A190" s="82"/>
+      <c r="A190" s="80"/>
       <c r="B190" s="55">
         <v>2</v>
       </c>
@@ -14256,7 +14268,7 @@
       </c>
     </row>
     <row r="191" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A191" s="82"/>
+      <c r="A191" s="80"/>
       <c r="B191" s="55">
         <v>3</v>
       </c>
@@ -14322,7 +14334,7 @@
       </c>
     </row>
     <row r="192" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A192" s="82"/>
+      <c r="A192" s="80"/>
       <c r="B192" s="55">
         <v>4</v>
       </c>
@@ -14388,7 +14400,7 @@
       </c>
     </row>
     <row r="193" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A193" s="82">
+      <c r="A193" s="80">
         <v>2006</v>
       </c>
       <c r="B193" s="55">
@@ -14456,7 +14468,7 @@
       </c>
     </row>
     <row r="194" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A194" s="82"/>
+      <c r="A194" s="80"/>
       <c r="B194" s="55">
         <v>2</v>
       </c>
@@ -14522,7 +14534,7 @@
       </c>
     </row>
     <row r="195" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A195" s="82"/>
+      <c r="A195" s="80"/>
       <c r="B195" s="55">
         <v>3</v>
       </c>
@@ -14588,7 +14600,7 @@
       </c>
     </row>
     <row r="196" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A196" s="82"/>
+      <c r="A196" s="80"/>
       <c r="B196" s="55">
         <v>4</v>
       </c>
@@ -14654,7 +14666,7 @@
       </c>
     </row>
     <row r="197" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A197" s="82">
+      <c r="A197" s="80">
         <v>2007</v>
       </c>
       <c r="B197" s="55">
@@ -14722,7 +14734,7 @@
       </c>
     </row>
     <row r="198" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A198" s="82"/>
+      <c r="A198" s="80"/>
       <c r="B198" s="55">
         <v>2</v>
       </c>
@@ -14788,7 +14800,7 @@
       </c>
     </row>
     <row r="199" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A199" s="82"/>
+      <c r="A199" s="80"/>
       <c r="B199" s="55">
         <v>3</v>
       </c>
@@ -14854,7 +14866,7 @@
       </c>
     </row>
     <row r="200" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A200" s="82"/>
+      <c r="A200" s="80"/>
       <c r="B200" s="55">
         <v>4</v>
       </c>
@@ -14920,7 +14932,7 @@
       </c>
     </row>
     <row r="201" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A201" s="82">
+      <c r="A201" s="80">
         <v>2008</v>
       </c>
       <c r="B201" s="55">
@@ -14988,7 +15000,7 @@
       </c>
     </row>
     <row r="202" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A202" s="82"/>
+      <c r="A202" s="80"/>
       <c r="B202" s="55">
         <v>2</v>
       </c>
@@ -15054,7 +15066,7 @@
       </c>
     </row>
     <row r="203" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A203" s="82"/>
+      <c r="A203" s="80"/>
       <c r="B203" s="55">
         <v>3</v>
       </c>
@@ -15120,7 +15132,7 @@
       </c>
     </row>
     <row r="204" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A204" s="82"/>
+      <c r="A204" s="80"/>
       <c r="B204" s="55">
         <v>4</v>
       </c>
@@ -15186,7 +15198,7 @@
       </c>
     </row>
     <row r="205" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A205" s="82">
+      <c r="A205" s="80">
         <v>2009</v>
       </c>
       <c r="B205" s="55">
@@ -15254,7 +15266,7 @@
       </c>
     </row>
     <row r="206" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A206" s="82"/>
+      <c r="A206" s="80"/>
       <c r="B206" s="55">
         <v>2</v>
       </c>
@@ -15320,7 +15332,7 @@
       </c>
     </row>
     <row r="207" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A207" s="82"/>
+      <c r="A207" s="80"/>
       <c r="B207" s="55">
         <v>3</v>
       </c>
@@ -15386,7 +15398,7 @@
       </c>
     </row>
     <row r="208" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A208" s="82"/>
+      <c r="A208" s="80"/>
       <c r="B208" s="55">
         <v>4</v>
       </c>
@@ -15452,7 +15464,7 @@
       </c>
     </row>
     <row r="209" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A209" s="82">
+      <c r="A209" s="80">
         <v>2010</v>
       </c>
       <c r="B209" s="55">
@@ -15520,7 +15532,7 @@
       </c>
     </row>
     <row r="210" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A210" s="82"/>
+      <c r="A210" s="80"/>
       <c r="B210" s="55">
         <v>2</v>
       </c>
@@ -15586,7 +15598,7 @@
       </c>
     </row>
     <row r="211" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A211" s="82"/>
+      <c r="A211" s="80"/>
       <c r="B211" s="55">
         <v>3</v>
       </c>
@@ -15652,7 +15664,7 @@
       </c>
     </row>
     <row r="212" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A212" s="82"/>
+      <c r="A212" s="80"/>
       <c r="B212" s="55">
         <v>4</v>
       </c>
@@ -15718,7 +15730,7 @@
       </c>
     </row>
     <row r="213" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A213" s="82">
+      <c r="A213" s="80">
         <v>2011</v>
       </c>
       <c r="B213" s="55">
@@ -15786,7 +15798,7 @@
       </c>
     </row>
     <row r="214" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A214" s="82"/>
+      <c r="A214" s="80"/>
       <c r="B214" s="55">
         <v>2</v>
       </c>
@@ -15852,7 +15864,7 @@
       </c>
     </row>
     <row r="215" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A215" s="82"/>
+      <c r="A215" s="80"/>
       <c r="B215" s="55">
         <v>3</v>
       </c>
@@ -15918,7 +15930,7 @@
       </c>
     </row>
     <row r="216" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A216" s="82"/>
+      <c r="A216" s="80"/>
       <c r="B216" s="55">
         <v>4</v>
       </c>
@@ -15984,7 +15996,7 @@
       </c>
     </row>
     <row r="217" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A217" s="82">
+      <c r="A217" s="80">
         <v>2012</v>
       </c>
       <c r="B217" s="55">
@@ -16052,7 +16064,7 @@
       </c>
     </row>
     <row r="218" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A218" s="82"/>
+      <c r="A218" s="80"/>
       <c r="B218" s="55">
         <v>2</v>
       </c>
@@ -16118,7 +16130,7 @@
       </c>
     </row>
     <row r="219" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A219" s="82"/>
+      <c r="A219" s="80"/>
       <c r="B219" s="55">
         <v>3</v>
       </c>
@@ -16184,7 +16196,7 @@
       </c>
     </row>
     <row r="220" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A220" s="86"/>
+      <c r="A220" s="104"/>
       <c r="B220" s="56">
         <v>4</v>
       </c>
@@ -16250,7 +16262,7 @@
       </c>
     </row>
     <row r="221" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A221" s="87">
+      <c r="A221" s="105">
         <v>2013</v>
       </c>
       <c r="B221" s="55">
@@ -16318,7 +16330,7 @@
       </c>
     </row>
     <row r="222" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A222" s="87"/>
+      <c r="A222" s="105"/>
       <c r="B222" s="55">
         <v>2</v>
       </c>
@@ -16384,7 +16396,7 @@
       </c>
     </row>
     <row r="223" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A223" s="87"/>
+      <c r="A223" s="105"/>
       <c r="B223" s="55">
         <v>3</v>
       </c>
@@ -16450,7 +16462,7 @@
       </c>
     </row>
     <row r="224" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A224" s="87"/>
+      <c r="A224" s="105"/>
       <c r="B224" s="56">
         <v>4</v>
       </c>
@@ -16516,7 +16528,7 @@
       </c>
     </row>
     <row r="225" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A225" s="87">
+      <c r="A225" s="105">
         <v>2014</v>
       </c>
       <c r="B225" s="55">
@@ -16584,7 +16596,7 @@
       </c>
     </row>
     <row r="226" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A226" s="87"/>
+      <c r="A226" s="105"/>
       <c r="B226" s="55">
         <v>2</v>
       </c>
@@ -16650,7 +16662,7 @@
       </c>
     </row>
     <row r="227" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A227" s="87"/>
+      <c r="A227" s="105"/>
       <c r="B227" s="55">
         <v>3</v>
       </c>
@@ -16716,7 +16728,7 @@
       </c>
     </row>
     <row r="228" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A228" s="87"/>
+      <c r="A228" s="105"/>
       <c r="B228" s="56">
         <v>4</v>
       </c>
@@ -16782,7 +16794,7 @@
       </c>
     </row>
     <row r="229" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A229" s="83">
+      <c r="A229" s="101">
         <v>2015</v>
       </c>
       <c r="B229" s="55">
@@ -16850,7 +16862,7 @@
       </c>
     </row>
     <row r="230" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A230" s="84"/>
+      <c r="A230" s="102"/>
       <c r="B230" s="55">
         <v>2</v>
       </c>
@@ -16916,7 +16928,7 @@
       </c>
     </row>
     <row r="231" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A231" s="84"/>
+      <c r="A231" s="102"/>
       <c r="B231" s="55">
         <v>3</v>
       </c>
@@ -16982,7 +16994,7 @@
       </c>
     </row>
     <row r="232" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A232" s="85"/>
+      <c r="A232" s="103"/>
       <c r="B232" s="56">
         <v>4</v>
       </c>
@@ -17048,7 +17060,7 @@
       </c>
     </row>
     <row r="233" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A233" s="83">
+      <c r="A233" s="101">
         <v>2016</v>
       </c>
       <c r="B233" s="55">
@@ -17116,7 +17128,7 @@
       </c>
     </row>
     <row r="234" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A234" s="84"/>
+      <c r="A234" s="102"/>
       <c r="B234" s="55">
         <v>2</v>
       </c>
@@ -17182,7 +17194,7 @@
       </c>
     </row>
     <row r="235" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A235" s="84"/>
+      <c r="A235" s="102"/>
       <c r="B235" s="55">
         <v>3</v>
       </c>
@@ -17248,7 +17260,7 @@
       </c>
     </row>
     <row r="236" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A236" s="85"/>
+      <c r="A236" s="103"/>
       <c r="B236" s="56">
         <v>4</v>
       </c>
@@ -17314,7 +17326,7 @@
       </c>
     </row>
     <row r="237" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A237" s="83">
+      <c r="A237" s="101">
         <v>2017</v>
       </c>
       <c r="B237" s="55">
@@ -17382,7 +17394,7 @@
       </c>
     </row>
     <row r="238" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A238" s="84"/>
+      <c r="A238" s="102"/>
       <c r="B238" s="55">
         <v>2</v>
       </c>
@@ -17448,7 +17460,7 @@
       </c>
     </row>
     <row r="239" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A239" s="84"/>
+      <c r="A239" s="102"/>
       <c r="B239" s="55">
         <v>3</v>
       </c>
@@ -17514,7 +17526,7 @@
       </c>
     </row>
     <row r="240" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A240" s="85"/>
+      <c r="A240" s="103"/>
       <c r="B240" s="56">
         <v>4</v>
       </c>
@@ -17580,7 +17592,7 @@
       </c>
     </row>
     <row r="241" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A241" s="79">
+      <c r="A241" s="98">
         <v>2018</v>
       </c>
       <c r="B241" s="55">
@@ -17648,7 +17660,7 @@
       </c>
     </row>
     <row r="242" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A242" s="80"/>
+      <c r="A242" s="99"/>
       <c r="B242" s="55">
         <v>2</v>
       </c>
@@ -17714,7 +17726,7 @@
       </c>
     </row>
     <row r="243" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A243" s="80"/>
+      <c r="A243" s="99"/>
       <c r="B243" s="55">
         <v>3</v>
       </c>
@@ -17780,7 +17792,7 @@
       </c>
     </row>
     <row r="244" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A244" s="81"/>
+      <c r="A244" s="100"/>
       <c r="B244" s="56">
         <v>4</v>
       </c>
@@ -17846,7 +17858,7 @@
       </c>
     </row>
     <row r="245" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A245" s="79">
+      <c r="A245" s="98">
         <v>2019</v>
       </c>
       <c r="B245" s="57" t="s">
@@ -17914,7 +17926,7 @@
       </c>
     </row>
     <row r="246" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A246" s="80"/>
+      <c r="A246" s="99"/>
       <c r="B246" s="57" t="s">
         <v>25</v>
       </c>
@@ -17980,7 +17992,7 @@
       </c>
     </row>
     <row r="247" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A247" s="80"/>
+      <c r="A247" s="99"/>
       <c r="B247" s="57" t="s">
         <v>24</v>
       </c>
@@ -18046,7 +18058,7 @@
       </c>
     </row>
     <row r="248" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A248" s="81"/>
+      <c r="A248" s="100"/>
       <c r="B248" s="57" t="s">
         <v>57</v>
       </c>
@@ -18112,7 +18124,7 @@
       </c>
     </row>
     <row r="249" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A249" s="79">
+      <c r="A249" s="98">
         <v>2020</v>
       </c>
       <c r="B249" s="57" t="s">
@@ -18180,7 +18192,7 @@
       </c>
     </row>
     <row r="250" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A250" s="80"/>
+      <c r="A250" s="99"/>
       <c r="B250" s="57" t="s">
         <v>25</v>
       </c>
@@ -18246,7 +18258,7 @@
       </c>
     </row>
     <row r="251" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A251" s="80"/>
+      <c r="A251" s="99"/>
       <c r="B251" s="57" t="s">
         <v>24</v>
       </c>
@@ -18312,7 +18324,7 @@
       </c>
     </row>
     <row r="252" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A252" s="80"/>
+      <c r="A252" s="99"/>
       <c r="B252" s="57" t="s">
         <v>57</v>
       </c>
@@ -18378,7 +18390,7 @@
       </c>
     </row>
     <row r="253" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A253" s="121">
+      <c r="A253" s="95">
         <v>2021</v>
       </c>
       <c r="B253" s="78" t="s">
@@ -18446,137 +18458,175 @@
       </c>
     </row>
     <row r="254" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A254" s="122"/>
+      <c r="A254" s="96"/>
       <c r="B254" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C254" s="68">
-        <v>123771</v>
+        <v>123985</v>
       </c>
       <c r="D254" s="69">
-        <v>22.1</v>
+        <v>22.3</v>
       </c>
       <c r="E254" s="70">
-        <v>90507</v>
+        <v>91829</v>
       </c>
       <c r="F254" s="69">
-        <v>28.4</v>
+        <v>30.3</v>
       </c>
       <c r="G254" s="70">
-        <v>33264</v>
+        <v>32156</v>
       </c>
       <c r="H254" s="69">
-        <v>7.6</v>
+        <v>4</v>
       </c>
       <c r="I254" s="70">
-        <v>61291</v>
-      </c>
-      <c r="J254" s="69">
-        <v>-0.3</v>
+        <v>61493</v>
+      </c>
+      <c r="J254" s="69" t="s">
+        <v>63</v>
       </c>
       <c r="K254" s="70">
-        <v>36446</v>
+        <v>37743</v>
       </c>
       <c r="L254" s="69">
-        <v>-6</v>
+        <v>-2.7</v>
       </c>
       <c r="M254" s="70">
-        <v>24845</v>
+        <v>23750</v>
       </c>
       <c r="N254" s="69">
-        <v>9.6</v>
+        <v>4.7</v>
       </c>
       <c r="O254" s="70">
-        <v>15595</v>
+        <v>15597</v>
       </c>
       <c r="P254" s="69">
         <v>50.2</v>
       </c>
       <c r="Q254" s="70">
-        <v>46885</v>
+        <v>46895</v>
       </c>
       <c r="R254" s="69">
-        <v>58.7</v>
+        <v>58.8</v>
       </c>
       <c r="S254" s="70">
-        <v>38466</v>
+        <v>38489</v>
       </c>
       <c r="T254" s="69">
-        <v>80.599999999999994</v>
+        <v>80.7</v>
       </c>
       <c r="U254" s="70">
-        <v>8419</v>
+        <v>8406</v>
       </c>
       <c r="V254" s="69">
-        <v>2.2000000000000002</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="255" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A255" s="14"/>
-      <c r="B255" s="14"/>
-      <c r="C255" s="73"/>
-      <c r="D255" s="74"/>
-      <c r="E255" s="73"/>
-      <c r="F255" s="74"/>
-      <c r="G255" s="73"/>
-      <c r="H255" s="74"/>
-      <c r="I255" s="73"/>
-      <c r="J255" s="74"/>
-      <c r="K255" s="73"/>
-      <c r="L255" s="74"/>
-      <c r="M255" s="73"/>
-      <c r="N255" s="74"/>
-      <c r="O255" s="73"/>
-      <c r="P255" s="74"/>
-      <c r="Q255" s="73"/>
-      <c r="R255" s="74"/>
-      <c r="S255" s="73"/>
-      <c r="T255" s="74"/>
-      <c r="U255" s="73"/>
-      <c r="V255" s="74"/>
-    </row>
-    <row r="256" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A256" s="5" t="s">
+      <c r="A255" s="97"/>
+      <c r="B255" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="68">
+        <v>127205</v>
+      </c>
+      <c r="D255" s="69">
+        <v>11.4</v>
+      </c>
+      <c r="E255" s="70">
+        <v>93217</v>
+      </c>
+      <c r="F255" s="69">
+        <v>15.8</v>
+      </c>
+      <c r="G255" s="70">
+        <v>33988</v>
+      </c>
+      <c r="H255" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I255" s="70">
+        <v>63199</v>
+      </c>
+      <c r="J255" s="69">
+        <v>1.5</v>
+      </c>
+      <c r="K255" s="70">
+        <v>38020</v>
+      </c>
+      <c r="L255" s="69">
+        <v>1.7</v>
+      </c>
+      <c r="M255" s="70">
+        <v>25179</v>
+      </c>
+      <c r="N255" s="69">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O255" s="70">
+        <v>15235</v>
+      </c>
+      <c r="P255" s="69">
+        <v>31.1</v>
+      </c>
+      <c r="Q255" s="70">
+        <v>48771</v>
+      </c>
+      <c r="R255" s="69">
+        <v>21.2</v>
+      </c>
+      <c r="S255" s="70">
+        <v>39962</v>
+      </c>
+      <c r="T255" s="69">
+        <v>26.7</v>
+      </c>
+      <c r="U255" s="70">
+        <v>8809</v>
+      </c>
+      <c r="V255" s="69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" s="11" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A256" s="14"/>
+      <c r="B256" s="14"/>
+      <c r="C256" s="73"/>
+      <c r="D256" s="74"/>
+      <c r="E256" s="73"/>
+      <c r="F256" s="74"/>
+      <c r="G256" s="73"/>
+      <c r="H256" s="74"/>
+      <c r="I256" s="73"/>
+      <c r="J256" s="74"/>
+      <c r="K256" s="73"/>
+      <c r="L256" s="74"/>
+      <c r="M256" s="73"/>
+      <c r="N256" s="74"/>
+      <c r="O256" s="73"/>
+      <c r="P256" s="74"/>
+      <c r="Q256" s="73"/>
+      <c r="R256" s="74"/>
+      <c r="S256" s="73"/>
+      <c r="T256" s="74"/>
+      <c r="U256" s="73"/>
+      <c r="V256" s="74"/>
+    </row>
+    <row r="257" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A257" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B256" s="10" t="s">
+      <c r="B257" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C256" s="9" t="s">
+      <c r="C257" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D256" s="3"/>
-      <c r="E256" s="9"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="9"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="3"/>
-      <c r="K256" s="3"/>
-      <c r="L256" s="3"/>
-      <c r="M256" s="3"/>
-      <c r="N256" s="3"/>
-      <c r="O256" s="3"/>
-      <c r="P256" s="3"/>
-      <c r="Q256" s="27"/>
-      <c r="R256" s="27"/>
-      <c r="S256" s="27"/>
-      <c r="T256" s="27"/>
-      <c r="U256" s="27"/>
-      <c r="V256" s="27"/>
-    </row>
-    <row r="257" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A257" s="5"/>
-      <c r="B257" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C257" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="D257" s="3"/>
-      <c r="E257" s="7"/>
+      <c r="E257" s="9"/>
       <c r="F257" s="3"/>
-      <c r="G257" s="7"/>
+      <c r="G257" s="9"/>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
       <c r="J257" s="3"/>
@@ -18596,24 +18646,24 @@
     <row r="258" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
       <c r="A258" s="5"/>
       <c r="B258" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D258" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="D258" s="3"/>
       <c r="E258" s="7"/>
-      <c r="F258" s="6"/>
+      <c r="F258" s="3"/>
       <c r="G258" s="7"/>
-      <c r="H258" s="6"/>
-      <c r="I258" s="6"/>
-      <c r="J258" s="6"/>
-      <c r="K258" s="6"/>
-      <c r="L258" s="6"/>
-      <c r="M258" s="6"/>
-      <c r="N258" s="6"/>
-      <c r="O258" s="6"/>
-      <c r="P258" s="6"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
       <c r="Q258" s="27"/>
       <c r="R258" s="27"/>
       <c r="S258" s="27"/>
@@ -18621,27 +18671,27 @@
       <c r="U258" s="27"/>
       <c r="V258" s="27"/>
     </row>
-    <row r="259" spans="1:22" s="11" customFormat="1">
+    <row r="259" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
       <c r="A259" s="5"/>
-      <c r="B259" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C259" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D259" s="27"/>
-      <c r="E259" s="27"/>
-      <c r="F259" s="27"/>
-      <c r="G259" s="27"/>
-      <c r="H259" s="27"/>
-      <c r="I259" s="27"/>
-      <c r="J259" s="27"/>
-      <c r="K259" s="27"/>
-      <c r="L259" s="27"/>
-      <c r="M259" s="27"/>
-      <c r="N259" s="27"/>
-      <c r="O259" s="27"/>
-      <c r="P259" s="27"/>
+      <c r="B259" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="7"/>
+      <c r="F259" s="6"/>
+      <c r="G259" s="7"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="6"/>
+      <c r="J259" s="6"/>
+      <c r="K259" s="6"/>
+      <c r="L259" s="6"/>
+      <c r="M259" s="6"/>
+      <c r="N259" s="6"/>
+      <c r="O259" s="6"/>
+      <c r="P259" s="6"/>
       <c r="Q259" s="27"/>
       <c r="R259" s="27"/>
       <c r="S259" s="27"/>
@@ -18651,8 +18701,11 @@
     </row>
     <row r="260" spans="1:22" s="11" customFormat="1">
       <c r="A260" s="5"/>
-      <c r="B260" s="27" t="s">
-        <v>67</v>
+      <c r="B260" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C260" s="27" t="s">
+        <v>60</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="27"/>
@@ -18676,8 +18729,8 @@
     </row>
     <row r="261" spans="1:22" s="11" customFormat="1">
       <c r="A261" s="5"/>
-      <c r="B261" s="29" t="s">
-        <v>68</v>
+      <c r="B261" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="D261" s="27"/>
       <c r="E261" s="27"/>
@@ -18701,8 +18754,8 @@
     </row>
     <row r="262" spans="1:22" s="11" customFormat="1">
       <c r="A262" s="5"/>
-      <c r="B262" s="27" t="s">
-        <v>64</v>
+      <c r="B262" s="29" t="s">
+        <v>68</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="27"/>
@@ -18724,12 +18777,11 @@
       <c r="U262" s="27"/>
       <c r="V262" s="27"/>
     </row>
-    <row r="263" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A263" s="27"/>
+    <row r="263" spans="1:22" s="11" customFormat="1">
+      <c r="A263" s="5"/>
       <c r="B263" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C263" s="27"/>
+        <v>64</v>
+      </c>
       <c r="D263" s="27"/>
       <c r="E263" s="27"/>
       <c r="F263" s="27"/>
@@ -18752,7 +18804,9 @@
     </row>
     <row r="264" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
       <c r="A264" s="27"/>
-      <c r="B264" s="27"/>
+      <c r="B264" s="27" t="s">
+        <v>65</v>
+      </c>
       <c r="C264" s="27"/>
       <c r="D264" s="27"/>
       <c r="E264" s="27"/>
@@ -18775,22 +18829,18 @@
       <c r="V264" s="27"/>
     </row>
     <row r="265" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A265" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B265" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
-      <c r="E265" s="28"/>
-      <c r="F265" s="28"/>
-      <c r="G265" s="28"/>
-      <c r="H265" s="28"/>
-      <c r="I265" s="28"/>
-      <c r="J265" s="28"/>
-      <c r="K265" s="28"/>
-      <c r="L265" s="28"/>
+      <c r="A265" s="27"/>
+      <c r="B265" s="27"/>
+      <c r="C265" s="27"/>
+      <c r="D265" s="27"/>
+      <c r="E265" s="27"/>
+      <c r="F265" s="27"/>
+      <c r="G265" s="27"/>
+      <c r="H265" s="27"/>
+      <c r="I265" s="27"/>
+      <c r="J265" s="27"/>
+      <c r="K265" s="27"/>
+      <c r="L265" s="27"/>
       <c r="M265" s="27"/>
       <c r="N265" s="27"/>
       <c r="O265" s="27"/>
@@ -18803,9 +18853,11 @@
       <c r="V265" s="27"/>
     </row>
     <row r="266" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A266" s="29"/>
+      <c r="A266" s="29" t="s">
+        <v>4</v>
+      </c>
       <c r="B266" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C266" s="28"/>
       <c r="D266" s="28"/>
@@ -18831,7 +18883,7 @@
     <row r="267" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
       <c r="A267" s="29"/>
       <c r="B267" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C267" s="28"/>
       <c r="D267" s="28"/>
@@ -18857,7 +18909,7 @@
     <row r="268" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
       <c r="A268" s="29"/>
       <c r="B268" s="9" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C268" s="28"/>
       <c r="D268" s="28"/>
@@ -18881,18 +18933,20 @@
       <c r="V268" s="27"/>
     </row>
     <row r="269" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A269" s="27"/>
-      <c r="B269" s="27"/>
-      <c r="C269" s="24"/>
-      <c r="D269" s="24"/>
-      <c r="E269" s="24"/>
-      <c r="F269" s="24"/>
-      <c r="G269" s="24"/>
-      <c r="H269" s="24"/>
-      <c r="I269" s="24"/>
-      <c r="J269" s="24"/>
-      <c r="K269" s="24"/>
-      <c r="L269" s="24"/>
+      <c r="A269" s="29"/>
+      <c r="B269" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" s="28"/>
+      <c r="D269" s="28"/>
+      <c r="E269" s="28"/>
+      <c r="F269" s="28"/>
+      <c r="G269" s="28"/>
+      <c r="H269" s="28"/>
+      <c r="I269" s="28"/>
+      <c r="J269" s="28"/>
+      <c r="K269" s="28"/>
+      <c r="L269" s="28"/>
       <c r="M269" s="27"/>
       <c r="N269" s="27"/>
       <c r="O269" s="27"/>
@@ -18905,10 +18959,8 @@
       <c r="V269" s="27"/>
     </row>
     <row r="270" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A270" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B270" s="24"/>
+      <c r="A270" s="27"/>
+      <c r="B270" s="27"/>
       <c r="C270" s="24"/>
       <c r="D270" s="24"/>
       <c r="E270" s="24"/>
@@ -18930,11 +18982,80 @@
       <c r="U270" s="27"/>
       <c r="V270" s="27"/>
     </row>
+    <row r="271" spans="1:22" s="11" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A271" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B271" s="24"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="24"/>
+      <c r="G271" s="24"/>
+      <c r="H271" s="24"/>
+      <c r="I271" s="24"/>
+      <c r="J271" s="24"/>
+      <c r="K271" s="24"/>
+      <c r="L271" s="24"/>
+      <c r="M271" s="27"/>
+      <c r="N271" s="27"/>
+      <c r="O271" s="27"/>
+      <c r="P271" s="27"/>
+      <c r="Q271" s="27"/>
+      <c r="R271" s="27"/>
+      <c r="S271" s="27"/>
+      <c r="T271" s="27"/>
+      <c r="U271" s="27"/>
+      <c r="V271" s="27"/>
+    </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A253:A255"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="A157:A160"/>
@@ -18949,52 +19070,9 @@
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A105:A108"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A209:A212"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -19004,10 +19082,10 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="60" max="22" man="1"/>
-    <brk id="120" max="22" man="1"/>
-    <brk id="180" max="22" man="1"/>
-    <brk id="240" max="22" man="1"/>
+    <brk id="60" max="16383" man="1"/>
+    <brk id="116" max="16383" man="1"/>
+    <brk id="172" max="16383" man="1"/>
+    <brk id="228" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -19017,10 +19095,10 @@
   <sheetPr codeName="工作表3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:W272"/>
+  <dimension ref="A1:W273"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C234" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <pane xSplit="2" ySplit="5" topLeftCell="C237" activePane="bottomRight" state="frozen"/>
       <selection activeCell="E238" sqref="E238"/>
       <selection pane="topRight" activeCell="E238" sqref="E238"/>
       <selection pane="bottomLeft" activeCell="E238" sqref="E238"/>
@@ -19068,80 +19146,80 @@
         <v>56</v>
       </c>
       <c r="B3" s="37"/>
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="102" t="s">
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="102"/>
-      <c r="K3" s="102"/>
-      <c r="L3" s="102"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="102"/>
-      <c r="O3" s="116" t="s">
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="107" t="s">
         <v>54</v>
       </c>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="102" t="s">
+      <c r="P3" s="108"/>
+      <c r="Q3" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="102"/>
-      <c r="S3" s="102"/>
-      <c r="T3" s="102"/>
-      <c r="U3" s="102"/>
-      <c r="V3" s="119"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="110"/>
     </row>
     <row r="4" spans="1:23" ht="18" customHeight="1">
       <c r="A4" s="38" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="39"/>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="84"/>
+      <c r="E4" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="84"/>
+      <c r="G4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91" t="s">
+      <c r="H4" s="84"/>
+      <c r="I4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="95" t="s">
+      <c r="J4" s="84"/>
+      <c r="K4" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="96"/>
-      <c r="M4" s="90" t="s">
+      <c r="L4" s="89"/>
+      <c r="M4" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="91"/>
-      <c r="O4" s="118" t="s">
+      <c r="N4" s="84"/>
+      <c r="O4" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="91" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="120"/>
-      <c r="S4" s="91" t="s">
+      <c r="R4" s="111"/>
+      <c r="S4" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="T4" s="91"/>
-      <c r="U4" s="91" t="s">
+      <c r="T4" s="84"/>
+      <c r="U4" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="V4" s="91"/>
+      <c r="V4" s="84"/>
     </row>
     <row r="5" spans="1:23" ht="28.5" customHeight="1">
       <c r="A5" s="38" t="s">
@@ -33416,7 +33494,7 @@
       </c>
     </row>
     <row r="220" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A220" s="111"/>
+      <c r="A220" s="119"/>
       <c r="B220" s="54">
         <v>4</v>
       </c>
@@ -33482,7 +33560,7 @@
       </c>
     </row>
     <row r="221" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A221" s="112">
+      <c r="A221" s="120">
         <v>2013</v>
       </c>
       <c r="B221" s="53">
@@ -33550,7 +33628,7 @@
       </c>
     </row>
     <row r="222" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A222" s="112"/>
+      <c r="A222" s="120"/>
       <c r="B222" s="53">
         <v>2</v>
       </c>
@@ -33616,7 +33694,7 @@
       </c>
     </row>
     <row r="223" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A223" s="112"/>
+      <c r="A223" s="120"/>
       <c r="B223" s="53">
         <v>3</v>
       </c>
@@ -33682,7 +33760,7 @@
       </c>
     </row>
     <row r="224" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A224" s="112"/>
+      <c r="A224" s="120"/>
       <c r="B224" s="54">
         <v>4</v>
       </c>
@@ -33748,7 +33826,7 @@
       </c>
     </row>
     <row r="225" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A225" s="112">
+      <c r="A225" s="120">
         <v>2014</v>
       </c>
       <c r="B225" s="53">
@@ -33816,7 +33894,7 @@
       </c>
     </row>
     <row r="226" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A226" s="112"/>
+      <c r="A226" s="120"/>
       <c r="B226" s="53">
         <v>2</v>
       </c>
@@ -33882,7 +33960,7 @@
       </c>
     </row>
     <row r="227" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A227" s="112"/>
+      <c r="A227" s="120"/>
       <c r="B227" s="53">
         <v>3</v>
       </c>
@@ -33948,7 +34026,7 @@
       </c>
     </row>
     <row r="228" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A228" s="112"/>
+      <c r="A228" s="120"/>
       <c r="B228" s="54">
         <v>4</v>
       </c>
@@ -34014,7 +34092,7 @@
       </c>
     </row>
     <row r="229" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A229" s="113">
+      <c r="A229" s="121">
         <v>2015</v>
       </c>
       <c r="B229" s="53">
@@ -34082,7 +34160,7 @@
       </c>
     </row>
     <row r="230" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A230" s="114"/>
+      <c r="A230" s="122"/>
       <c r="B230" s="53">
         <v>2</v>
       </c>
@@ -34148,7 +34226,7 @@
       </c>
     </row>
     <row r="231" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A231" s="114"/>
+      <c r="A231" s="122"/>
       <c r="B231" s="53">
         <v>3</v>
       </c>
@@ -34214,7 +34292,7 @@
       </c>
     </row>
     <row r="232" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A232" s="115"/>
+      <c r="A232" s="123"/>
       <c r="B232" s="54">
         <v>4</v>
       </c>
@@ -34280,7 +34358,7 @@
       </c>
     </row>
     <row r="233" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A233" s="113">
+      <c r="A233" s="121">
         <v>2016</v>
       </c>
       <c r="B233" s="53">
@@ -34348,7 +34426,7 @@
       </c>
     </row>
     <row r="234" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A234" s="114"/>
+      <c r="A234" s="122"/>
       <c r="B234" s="53">
         <v>2</v>
       </c>
@@ -34414,7 +34492,7 @@
       </c>
     </row>
     <row r="235" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A235" s="114"/>
+      <c r="A235" s="122"/>
       <c r="B235" s="53">
         <v>3</v>
       </c>
@@ -34480,7 +34558,7 @@
       </c>
     </row>
     <row r="236" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A236" s="114"/>
+      <c r="A236" s="122"/>
       <c r="B236" s="54">
         <v>4</v>
       </c>
@@ -34546,7 +34624,7 @@
       </c>
     </row>
     <row r="237" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A237" s="107">
+      <c r="A237" s="115">
         <v>2017</v>
       </c>
       <c r="B237" s="53">
@@ -34614,7 +34692,7 @@
       </c>
     </row>
     <row r="238" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A238" s="107"/>
+      <c r="A238" s="115"/>
       <c r="B238" s="53">
         <v>2</v>
       </c>
@@ -34680,7 +34758,7 @@
       </c>
     </row>
     <row r="239" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A239" s="107"/>
+      <c r="A239" s="115"/>
       <c r="B239" s="53">
         <v>3</v>
       </c>
@@ -34746,7 +34824,7 @@
       </c>
     </row>
     <row r="240" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A240" s="107"/>
+      <c r="A240" s="115"/>
       <c r="B240" s="54">
         <v>4</v>
       </c>
@@ -34812,7 +34890,7 @@
       </c>
     </row>
     <row r="241" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A241" s="108">
+      <c r="A241" s="116">
         <v>2018</v>
       </c>
       <c r="B241" s="53">
@@ -34880,7 +34958,7 @@
       </c>
     </row>
     <row r="242" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A242" s="109"/>
+      <c r="A242" s="117"/>
       <c r="B242" s="53">
         <v>2</v>
       </c>
@@ -34946,7 +35024,7 @@
       </c>
     </row>
     <row r="243" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A243" s="109"/>
+      <c r="A243" s="117"/>
       <c r="B243" s="53">
         <v>3</v>
       </c>
@@ -35012,7 +35090,7 @@
       </c>
     </row>
     <row r="244" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A244" s="110"/>
+      <c r="A244" s="118"/>
       <c r="B244" s="54">
         <v>4</v>
       </c>
@@ -35078,7 +35156,7 @@
       </c>
     </row>
     <row r="245" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A245" s="103">
+      <c r="A245" s="112">
         <v>2019</v>
       </c>
       <c r="B245" s="57" t="s">
@@ -35146,7 +35224,7 @@
       </c>
     </row>
     <row r="246" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A246" s="104"/>
+      <c r="A246" s="113"/>
       <c r="B246" s="57" t="s">
         <v>25</v>
       </c>
@@ -35212,7 +35290,7 @@
       </c>
     </row>
     <row r="247" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A247" s="104"/>
+      <c r="A247" s="113"/>
       <c r="B247" s="57" t="s">
         <v>47</v>
       </c>
@@ -35278,7 +35356,7 @@
       </c>
     </row>
     <row r="248" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A248" s="105"/>
+      <c r="A248" s="114"/>
       <c r="B248" s="57" t="s">
         <v>62</v>
       </c>
@@ -35344,7 +35422,7 @@
       </c>
     </row>
     <row r="249" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A249" s="103">
+      <c r="A249" s="112">
         <v>2020</v>
       </c>
       <c r="B249" s="57" t="s">
@@ -35412,7 +35490,7 @@
       </c>
     </row>
     <row r="250" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A250" s="104"/>
+      <c r="A250" s="113"/>
       <c r="B250" s="57" t="s">
         <v>25</v>
       </c>
@@ -35478,7 +35556,7 @@
       </c>
     </row>
     <row r="251" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A251" s="104"/>
+      <c r="A251" s="113"/>
       <c r="B251" s="57" t="s">
         <v>24</v>
       </c>
@@ -35544,7 +35622,7 @@
       </c>
     </row>
     <row r="252" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A252" s="104"/>
+      <c r="A252" s="113"/>
       <c r="B252" s="57" t="s">
         <v>57</v>
       </c>
@@ -35610,7 +35688,7 @@
       </c>
     </row>
     <row r="253" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A253" s="121">
+      <c r="A253" s="95">
         <v>2021</v>
       </c>
       <c r="B253" s="78" t="s">
@@ -35678,188 +35756,226 @@
       </c>
     </row>
     <row r="254" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A254" s="122"/>
+      <c r="A254" s="96"/>
       <c r="B254" s="78" t="s">
         <v>25</v>
       </c>
       <c r="C254" s="66">
-        <v>127609</v>
+        <v>127736</v>
       </c>
       <c r="D254" s="67">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="E254" s="66">
-        <v>94885</v>
+        <v>96341</v>
       </c>
       <c r="F254" s="67">
-        <v>30.8</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G254" s="66">
-        <v>32724</v>
+        <v>31395</v>
       </c>
       <c r="H254" s="67">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="I254" s="66">
-        <v>60620</v>
+        <v>60706</v>
       </c>
       <c r="J254" s="67">
-        <v>-1.1000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="K254" s="66">
-        <v>36309</v>
+        <v>37703</v>
       </c>
       <c r="L254" s="67">
-        <v>-6.8</v>
+        <v>-3.2</v>
       </c>
       <c r="M254" s="66">
-        <v>24311</v>
+        <v>23003</v>
       </c>
       <c r="N254" s="67">
-        <v>8.8000000000000007</v>
+        <v>2.9</v>
       </c>
       <c r="O254" s="66">
-        <v>18478</v>
+        <v>18518</v>
       </c>
       <c r="P254" s="67">
-        <v>57.3</v>
+        <v>57.6</v>
       </c>
       <c r="Q254" s="66">
-        <v>48511</v>
+        <v>48512</v>
       </c>
       <c r="R254" s="67">
         <v>61.7</v>
       </c>
       <c r="S254" s="66">
-        <v>40098</v>
+        <v>40120</v>
       </c>
       <c r="T254" s="67">
-        <v>83.9</v>
+        <v>84</v>
       </c>
       <c r="U254" s="66">
-        <v>8413</v>
+        <v>8392</v>
       </c>
       <c r="V254" s="67">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="255" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A255" s="40"/>
-      <c r="B255" s="40"/>
-      <c r="C255" s="13"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12"/>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="13"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="13"/>
-      <c r="L255" s="12"/>
-      <c r="M255" s="13"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="13"/>
-      <c r="P255" s="12"/>
-      <c r="Q255" s="13"/>
-      <c r="R255" s="12"/>
-      <c r="S255" s="13"/>
-      <c r="T255" s="12"/>
-      <c r="U255" s="13"/>
-      <c r="V255" s="12"/>
-    </row>
-    <row r="256" spans="1:22">
-      <c r="A256" s="40" t="s">
+      <c r="A255" s="97"/>
+      <c r="B255" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C255" s="66">
+        <v>127298</v>
+      </c>
+      <c r="D255" s="67">
+        <v>10.8</v>
+      </c>
+      <c r="E255" s="66">
+        <v>93747</v>
+      </c>
+      <c r="F255" s="67">
+        <v>15.2</v>
+      </c>
+      <c r="G255" s="66">
+        <v>33551</v>
+      </c>
+      <c r="H255" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="I255" s="66">
+        <v>62455</v>
+      </c>
+      <c r="J255" s="67">
+        <v>0.3</v>
+      </c>
+      <c r="K255" s="66">
+        <v>37746</v>
+      </c>
+      <c r="L255" s="67">
+        <v>0.4</v>
+      </c>
+      <c r="M255" s="66">
+        <v>24709</v>
+      </c>
+      <c r="N255" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="O255" s="66">
+        <v>16881</v>
+      </c>
+      <c r="P255" s="67">
+        <v>35.1</v>
+      </c>
+      <c r="Q255" s="66">
+        <v>47962</v>
+      </c>
+      <c r="R255" s="67">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="S255" s="66">
+        <v>39120</v>
+      </c>
+      <c r="T255" s="67">
+        <v>24.9</v>
+      </c>
+      <c r="U255" s="66">
+        <v>8842</v>
+      </c>
+      <c r="V255" s="67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A256" s="40"/>
+      <c r="B256" s="40"/>
+      <c r="C256" s="13"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12"/>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="13"/>
+      <c r="J256" s="12"/>
+      <c r="K256" s="13"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="13"/>
+      <c r="N256" s="12"/>
+      <c r="O256" s="13"/>
+      <c r="P256" s="12"/>
+      <c r="Q256" s="13"/>
+      <c r="R256" s="12"/>
+      <c r="S256" s="13"/>
+      <c r="T256" s="12"/>
+      <c r="U256" s="13"/>
+      <c r="V256" s="12"/>
+    </row>
+    <row r="257" spans="1:22">
+      <c r="A257" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B256" s="40" t="s">
+      <c r="B257" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="C256" s="41" t="s">
+      <c r="C257" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D256" s="41"/>
-      <c r="E256" s="41"/>
-      <c r="F256" s="41"/>
-      <c r="G256" s="41"/>
-      <c r="H256" s="41"/>
-      <c r="I256" s="41"/>
-      <c r="J256" s="41"/>
-      <c r="K256" s="41"/>
-      <c r="L256" s="41"/>
-      <c r="M256" s="41"/>
-      <c r="N256" s="41"/>
-      <c r="O256" s="41"/>
-      <c r="P256" s="41"/>
-      <c r="Q256" s="41"/>
-      <c r="R256" s="41"/>
-      <c r="S256" s="41"/>
-      <c r="T256" s="41"/>
-      <c r="U256" s="41"/>
-      <c r="V256" s="41"/>
-    </row>
-    <row r="257" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A257" s="40"/>
-      <c r="B257" s="40" t="s">
+      <c r="D257" s="41"/>
+      <c r="E257" s="41"/>
+      <c r="F257" s="41"/>
+      <c r="G257" s="41"/>
+      <c r="H257" s="41"/>
+      <c r="I257" s="41"/>
+      <c r="J257" s="41"/>
+      <c r="K257" s="41"/>
+      <c r="L257" s="41"/>
+      <c r="M257" s="41"/>
+      <c r="N257" s="41"/>
+      <c r="O257" s="41"/>
+      <c r="P257" s="41"/>
+      <c r="Q257" s="41"/>
+      <c r="R257" s="41"/>
+      <c r="S257" s="41"/>
+      <c r="T257" s="41"/>
+      <c r="U257" s="41"/>
+      <c r="V257" s="41"/>
+    </row>
+    <row r="258" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A258" s="40"/>
+      <c r="B258" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="C257" s="42" t="s">
+      <c r="C258" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D257" s="42"/>
-      <c r="E257" s="42"/>
-      <c r="F257" s="42"/>
-      <c r="G257" s="42"/>
-      <c r="H257" s="42"/>
-      <c r="I257" s="42"/>
-      <c r="J257" s="42"/>
-      <c r="K257" s="42"/>
-      <c r="L257" s="42"/>
-      <c r="M257" s="42"/>
-      <c r="N257" s="42"/>
-      <c r="O257" s="42"/>
-      <c r="P257" s="42"/>
-      <c r="Q257" s="42"/>
-      <c r="R257" s="42"/>
-      <c r="S257" s="42"/>
-      <c r="T257" s="42"/>
-      <c r="U257" s="42"/>
-      <c r="V257" s="42"/>
-    </row>
-    <row r="258" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A258" s="43"/>
-      <c r="B258" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C258" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="D258" s="40"/>
-      <c r="E258" s="40"/>
-      <c r="F258" s="40"/>
-      <c r="G258" s="40"/>
-      <c r="H258" s="40"/>
-      <c r="I258" s="40"/>
-      <c r="J258" s="40"/>
-      <c r="K258" s="40"/>
-      <c r="L258" s="40"/>
-      <c r="M258" s="40"/>
-      <c r="N258" s="40"/>
-      <c r="O258" s="40"/>
-      <c r="P258" s="40"/>
-      <c r="Q258" s="46"/>
-      <c r="R258" s="46"/>
-      <c r="S258" s="46"/>
-      <c r="T258" s="46"/>
-      <c r="U258" s="46"/>
-      <c r="V258" s="46"/>
+      <c r="D258" s="42"/>
+      <c r="E258" s="42"/>
+      <c r="F258" s="42"/>
+      <c r="G258" s="42"/>
+      <c r="H258" s="42"/>
+      <c r="I258" s="42"/>
+      <c r="J258" s="42"/>
+      <c r="K258" s="42"/>
+      <c r="L258" s="42"/>
+      <c r="M258" s="42"/>
+      <c r="N258" s="42"/>
+      <c r="O258" s="42"/>
+      <c r="P258" s="42"/>
+      <c r="Q258" s="42"/>
+      <c r="R258" s="42"/>
+      <c r="S258" s="42"/>
+      <c r="T258" s="42"/>
+      <c r="U258" s="42"/>
+      <c r="V258" s="42"/>
     </row>
     <row r="259" spans="1:22" ht="13.5" customHeight="1">
       <c r="A259" s="43"/>
       <c r="B259" s="44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C259" s="45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D259" s="40"/>
       <c r="E259" s="40"/>
@@ -35883,38 +35999,40 @@
     </row>
     <row r="260" spans="1:22" ht="13.5" customHeight="1">
       <c r="A260" s="43"/>
-      <c r="B260" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C260" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="D260" s="34"/>
-      <c r="E260" s="34"/>
-      <c r="F260" s="34"/>
-      <c r="G260" s="34"/>
-      <c r="H260" s="34"/>
-      <c r="I260" s="34"/>
-      <c r="J260" s="34"/>
-      <c r="K260" s="34"/>
-      <c r="L260" s="34"/>
-      <c r="M260" s="34"/>
-      <c r="N260" s="34"/>
-      <c r="O260" s="34"/>
-      <c r="P260" s="34"/>
-      <c r="Q260" s="34"/>
-      <c r="R260" s="34"/>
-      <c r="S260" s="34"/>
-      <c r="T260" s="34"/>
-      <c r="U260" s="34"/>
-      <c r="V260" s="34"/>
+      <c r="B260" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="D260" s="40"/>
+      <c r="E260" s="40"/>
+      <c r="F260" s="40"/>
+      <c r="G260" s="40"/>
+      <c r="H260" s="40"/>
+      <c r="I260" s="40"/>
+      <c r="J260" s="40"/>
+      <c r="K260" s="40"/>
+      <c r="L260" s="40"/>
+      <c r="M260" s="40"/>
+      <c r="N260" s="40"/>
+      <c r="O260" s="40"/>
+      <c r="P260" s="40"/>
+      <c r="Q260" s="46"/>
+      <c r="R260" s="46"/>
+      <c r="S260" s="46"/>
+      <c r="T260" s="46"/>
+      <c r="U260" s="46"/>
+      <c r="V260" s="46"/>
     </row>
     <row r="261" spans="1:22" ht="13.5" customHeight="1">
       <c r="A261" s="43"/>
-      <c r="B261" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C261" s="27"/>
+      <c r="B261" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C261" s="27" t="s">
+        <v>60</v>
+      </c>
       <c r="D261" s="34"/>
       <c r="E261" s="34"/>
       <c r="F261" s="34"/>
@@ -35936,60 +36054,60 @@
       <c r="V261" s="34"/>
     </row>
     <row r="262" spans="1:22" ht="13.5" customHeight="1">
-      <c r="B262" s="29" t="s">
+      <c r="A262" s="43"/>
+      <c r="B262" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C262" s="27"/>
+      <c r="D262" s="34"/>
+      <c r="E262" s="34"/>
+      <c r="F262" s="34"/>
+      <c r="G262" s="34"/>
+      <c r="H262" s="34"/>
+      <c r="I262" s="34"/>
+      <c r="J262" s="34"/>
+      <c r="K262" s="34"/>
+      <c r="L262" s="34"/>
+      <c r="M262" s="34"/>
+      <c r="N262" s="34"/>
+      <c r="O262" s="34"/>
+      <c r="P262" s="34"/>
+      <c r="Q262" s="34"/>
+      <c r="R262" s="34"/>
+      <c r="S262" s="34"/>
+      <c r="T262" s="34"/>
+      <c r="U262" s="34"/>
+      <c r="V262" s="34"/>
+    </row>
+    <row r="263" spans="1:22" ht="13.5" customHeight="1">
+      <c r="B263" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C262" s="29"/>
-      <c r="D262" s="35"/>
-      <c r="E262" s="35"/>
-      <c r="F262" s="35"/>
-      <c r="G262" s="35"/>
-      <c r="H262" s="35"/>
-      <c r="I262" s="35"/>
-      <c r="J262" s="35"/>
-      <c r="K262" s="35"/>
-      <c r="L262" s="35"/>
-      <c r="M262" s="35"/>
-      <c r="N262" s="35"/>
-      <c r="O262" s="35"/>
-      <c r="P262" s="35"/>
-      <c r="Q262" s="35"/>
-      <c r="R262" s="35"/>
-      <c r="S262" s="35"/>
-      <c r="T262" s="35"/>
-      <c r="U262" s="35"/>
-      <c r="V262" s="35"/>
-    </row>
-    <row r="263" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A263" s="43"/>
-      <c r="B263" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C263" s="27"/>
-      <c r="D263" s="34"/>
-      <c r="E263" s="34"/>
-      <c r="F263" s="34"/>
-      <c r="G263" s="34"/>
-      <c r="H263" s="34"/>
-      <c r="I263" s="34"/>
-      <c r="J263" s="34"/>
-      <c r="K263" s="34"/>
-      <c r="L263" s="34"/>
-      <c r="M263" s="34"/>
-      <c r="N263" s="34"/>
-      <c r="O263" s="34"/>
-      <c r="P263" s="34"/>
-      <c r="Q263" s="34"/>
-      <c r="R263" s="34"/>
-      <c r="S263" s="34"/>
-      <c r="T263" s="34"/>
-      <c r="U263" s="34"/>
-      <c r="V263" s="34"/>
+      <c r="C263" s="29"/>
+      <c r="D263" s="35"/>
+      <c r="E263" s="35"/>
+      <c r="F263" s="35"/>
+      <c r="G263" s="35"/>
+      <c r="H263" s="35"/>
+      <c r="I263" s="35"/>
+      <c r="J263" s="35"/>
+      <c r="K263" s="35"/>
+      <c r="L263" s="35"/>
+      <c r="M263" s="35"/>
+      <c r="N263" s="35"/>
+      <c r="O263" s="35"/>
+      <c r="P263" s="35"/>
+      <c r="Q263" s="35"/>
+      <c r="R263" s="35"/>
+      <c r="S263" s="35"/>
+      <c r="T263" s="35"/>
+      <c r="U263" s="35"/>
+      <c r="V263" s="35"/>
     </row>
     <row r="264" spans="1:22" ht="13.5" customHeight="1">
       <c r="A264" s="43"/>
       <c r="B264" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C264" s="27"/>
       <c r="D264" s="34"/>
@@ -36014,8 +36132,10 @@
     </row>
     <row r="265" spans="1:22" ht="13.5" customHeight="1">
       <c r="A265" s="43"/>
-      <c r="B265" s="47"/>
-      <c r="C265" s="34"/>
+      <c r="B265" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="C265" s="27"/>
       <c r="D265" s="34"/>
       <c r="E265" s="34"/>
       <c r="F265" s="34"/>
@@ -36037,12 +36157,8 @@
       <c r="V265" s="34"/>
     </row>
     <row r="266" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A266" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="B266" s="34" t="s">
-        <v>3</v>
-      </c>
+      <c r="A266" s="43"/>
+      <c r="B266" s="47"/>
       <c r="C266" s="34"/>
       <c r="D266" s="34"/>
       <c r="E266" s="34"/>
@@ -36053,21 +36169,23 @@
       <c r="J266" s="34"/>
       <c r="K266" s="34"/>
       <c r="L266" s="34"/>
-      <c r="M266" s="35"/>
-      <c r="N266" s="35"/>
-      <c r="O266" s="35"/>
-      <c r="P266" s="35"/>
-      <c r="Q266" s="35"/>
-      <c r="R266" s="35"/>
-      <c r="S266" s="35"/>
-      <c r="T266" s="35"/>
-      <c r="U266" s="35"/>
-      <c r="V266" s="35"/>
+      <c r="M266" s="34"/>
+      <c r="N266" s="34"/>
+      <c r="O266" s="34"/>
+      <c r="P266" s="34"/>
+      <c r="Q266" s="34"/>
+      <c r="R266" s="34"/>
+      <c r="S266" s="34"/>
+      <c r="T266" s="34"/>
+      <c r="U266" s="34"/>
+      <c r="V266" s="34"/>
     </row>
     <row r="267" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A267" s="34"/>
+      <c r="A267" s="34" t="s">
+        <v>4</v>
+      </c>
       <c r="B267" s="34" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C267" s="34"/>
       <c r="D267" s="34"/>
@@ -36093,7 +36211,7 @@
     <row r="268" spans="1:22" ht="13.5" customHeight="1">
       <c r="A268" s="34"/>
       <c r="B268" s="34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C268" s="34"/>
       <c r="D268" s="34"/>
@@ -36119,7 +36237,7 @@
     <row r="269" spans="1:22" ht="13.5" customHeight="1">
       <c r="A269" s="34"/>
       <c r="B269" s="34" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C269" s="34"/>
       <c r="D269" s="34"/>
@@ -36143,18 +36261,20 @@
       <c r="V269" s="35"/>
     </row>
     <row r="270" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A270" s="48"/>
-      <c r="B270" s="48"/>
-      <c r="C270" s="48"/>
-      <c r="D270" s="48"/>
-      <c r="E270" s="48"/>
-      <c r="F270" s="48"/>
-      <c r="G270" s="48"/>
-      <c r="H270" s="48"/>
-      <c r="I270" s="48"/>
-      <c r="J270" s="48"/>
-      <c r="K270" s="48"/>
-      <c r="L270" s="48"/>
+      <c r="A270" s="34"/>
+      <c r="B270" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" s="34"/>
+      <c r="D270" s="34"/>
+      <c r="E270" s="34"/>
+      <c r="F270" s="34"/>
+      <c r="G270" s="34"/>
+      <c r="H270" s="34"/>
+      <c r="I270" s="34"/>
+      <c r="J270" s="34"/>
+      <c r="K270" s="34"/>
+      <c r="L270" s="34"/>
       <c r="M270" s="35"/>
       <c r="N270" s="35"/>
       <c r="O270" s="35"/>
@@ -36167,19 +36287,17 @@
       <c r="V270" s="35"/>
     </row>
     <row r="271" spans="1:22" ht="13.5" customHeight="1">
-      <c r="A271" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="B271" s="41"/>
-      <c r="C271" s="41"/>
-      <c r="D271" s="41"/>
-      <c r="E271" s="41"/>
-      <c r="F271" s="41"/>
-      <c r="G271" s="41"/>
-      <c r="H271" s="41"/>
-      <c r="I271" s="41"/>
-      <c r="J271" s="41"/>
-      <c r="K271" s="41"/>
+      <c r="A271" s="48"/>
+      <c r="B271" s="48"/>
+      <c r="C271" s="48"/>
+      <c r="D271" s="48"/>
+      <c r="E271" s="48"/>
+      <c r="F271" s="48"/>
+      <c r="G271" s="48"/>
+      <c r="H271" s="48"/>
+      <c r="I271" s="48"/>
+      <c r="J271" s="48"/>
+      <c r="K271" s="48"/>
       <c r="L271" s="48"/>
       <c r="M271" s="35"/>
       <c r="N271" s="35"/>
@@ -36192,12 +36310,81 @@
       <c r="U271" s="35"/>
       <c r="V271" s="35"/>
     </row>
-    <row r="272" spans="1:22" ht="13.5" customHeight="1"/>
+    <row r="272" spans="1:22" ht="13.5" customHeight="1">
+      <c r="A272" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B272" s="41"/>
+      <c r="C272" s="41"/>
+      <c r="D272" s="41"/>
+      <c r="E272" s="41"/>
+      <c r="F272" s="41"/>
+      <c r="G272" s="41"/>
+      <c r="H272" s="41"/>
+      <c r="I272" s="41"/>
+      <c r="J272" s="41"/>
+      <c r="K272" s="41"/>
+      <c r="L272" s="48"/>
+      <c r="M272" s="35"/>
+      <c r="N272" s="35"/>
+      <c r="O272" s="35"/>
+      <c r="P272" s="35"/>
+      <c r="Q272" s="35"/>
+      <c r="R272" s="35"/>
+      <c r="S272" s="35"/>
+      <c r="T272" s="35"/>
+      <c r="U272" s="35"/>
+      <c r="V272" s="35"/>
+    </row>
+    <row r="273" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="A253:A254"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A65:A68"/>
+    <mergeCell ref="A253:A255"/>
+    <mergeCell ref="A245:A248"/>
+    <mergeCell ref="A249:A252"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:A208"/>
+    <mergeCell ref="A237:A240"/>
+    <mergeCell ref="A241:A244"/>
+    <mergeCell ref="A213:A216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A221:A224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:A192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A197:A200"/>
+    <mergeCell ref="A161:A164"/>
+    <mergeCell ref="A165:A168"/>
+    <mergeCell ref="A169:A172"/>
+    <mergeCell ref="A173:A176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A181:A184"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="A121:A124"/>
+    <mergeCell ref="A125:A128"/>
+    <mergeCell ref="A129:A132"/>
+    <mergeCell ref="A133:A136"/>
+    <mergeCell ref="A137:A140"/>
+    <mergeCell ref="A141:A144"/>
+    <mergeCell ref="A145:A148"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:A156"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q3:V3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
     <mergeCell ref="C3:H3"/>
     <mergeCell ref="I3:N3"/>
     <mergeCell ref="A157:A160"/>
@@ -36212,52 +36399,9 @@
     <mergeCell ref="A97:A100"/>
     <mergeCell ref="A101:A104"/>
     <mergeCell ref="A105:A108"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q3:V3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A65:A68"/>
     <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A137:A140"/>
-    <mergeCell ref="A141:A144"/>
-    <mergeCell ref="A145:A148"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:A156"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="A121:A124"/>
-    <mergeCell ref="A125:A128"/>
-    <mergeCell ref="A129:A132"/>
-    <mergeCell ref="A133:A136"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:A192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A197:A200"/>
-    <mergeCell ref="A161:A164"/>
-    <mergeCell ref="A165:A168"/>
-    <mergeCell ref="A169:A172"/>
-    <mergeCell ref="A173:A176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A181:A184"/>
-    <mergeCell ref="A245:A248"/>
-    <mergeCell ref="A249:A252"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:A208"/>
-    <mergeCell ref="A237:A240"/>
-    <mergeCell ref="A241:A244"/>
-    <mergeCell ref="A213:A216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A221:A224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A209:A212"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -36267,10 +36411,10 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.31496062992125984" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
-    <brk id="60" max="22" man="1"/>
-    <brk id="116" max="22" man="1"/>
-    <brk id="172" max="22" man="1"/>
-    <brk id="228" max="22" man="1"/>
+    <brk id="60" max="16383" man="1"/>
+    <brk id="116" max="16383" man="1"/>
+    <brk id="172" max="16383" man="1"/>
+    <brk id="228" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>